--- a/Employee_Reports35/Erick Omondi Okoyo Q0530.xlsx
+++ b/Employee_Reports35/Erick Omondi Okoyo Q0530.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,8 +452,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1367,36 +1367,171 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>28-Jan-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>28-Jan-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>25-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>25-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>10-Jul-2025</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>10-Jul-2027</t>
         </is>
       </c>
-      <c r="H20" s="3" t="n">
-        <v>614</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>613</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Erick Omondi Okoyo Q0530.xlsx
+++ b/Employee_Reports35/Erick Omondi Okoyo Q0530.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1445,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1482,11 +1482,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1519,11 +1519,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
